--- a/CapaPresentacion/Resources/PlantillaProducto.xlsx
+++ b/CapaPresentacion/Resources/PlantillaProducto.xlsx
@@ -2,13 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ThecnoMacVzla\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" state="veryHidden" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,26 +23,9 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Codigo</t>
-  </si>
-  <si>
-    <t>Descripcion</t>
-  </si>
-  <si>
-    <t>Categoria</t>
-  </si>
-  <si>
-    <t>Medida</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,26 +33,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -80,11 +54,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -100,160 +71,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>171451</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2038349" y="1057275"/>
-          <a:ext cx="5886451" cy="5591176"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="76200"/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600"/>
-            <a:t>EL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" baseline="0"/>
-            <a:t> SISTEMA FUE CREADO POR:</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="3600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="3600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="3600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="3600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="3600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="3600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US" sz="3600" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="3600" baseline="0"/>
-            <a:t>Codigo Estudiante</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="2400" baseline="0"/>
-            <a:t>(canal youtube)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>88722</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3200400" y="1790700"/>
-          <a:ext cx="3746322" cy="3752849"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -519,99 +336,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.28515625" style="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>